--- a/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,369 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -711,370 +985,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1122</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300017-网宿科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -549,6 +566,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1002,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1172,7 +2271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
